--- a/data/long_bre/P18_1-Estudios-long_bre.xlsx
+++ b/data/long_bre/P18_1-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,07%</t>
+          <t>16,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80,74%</t>
+          <t>-22,87%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>77,61%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>70,01%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>128,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 9,48</t>
+          <t>-27,72; 6,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 15,83</t>
+          <t>1,88; 22,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 22,29</t>
+          <t>2,11; 17,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 49,48</t>
+          <t>6,58; 27,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 170,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 204,59</t>
+          <t>-62,18; 27,41</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5,62; 213,61</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9,53; 168,94</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36,82; 323,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,21</t>
+          <t>-28,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,26</t>
+          <t>-18,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,3%</t>
+          <t>-10,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>-1,46%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-39,44%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-27,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-17,73%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 5,53</t>
+          <t>-14,76; 17,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,98; -2,6</t>
+          <t>-40,63; -16,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,29; -9,27</t>
+          <t>-26,98; -8,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 10,71</t>
+          <t>-25,13; 15,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,57; -6,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,69; -15,74</t>
+          <t>-23,55; 41,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-52,78; -24,65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-37,86; -13,71</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-35,11; 28,46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>16,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>66,99%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>119,4%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43,02%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-21,5%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 14,95</t>
+          <t>-2,45; 18,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 23,33</t>
+          <t>5,3; 26,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 15,08</t>
+          <t>-0,2; 15,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 220,6</t>
+          <t>-32,56; 9,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 181,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 104,66</t>
+          <t>-15,02; 266,5</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26,17; 316,91</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 103,22</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-65,75; 67,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 14,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 8,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 62,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,93; 157,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 65,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,76</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-15,51</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,07</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-19,96%</t>
+          <t>15,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-21,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-16,6%</t>
+          <t>36,67%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>96,74%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,31%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>121,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,43; -4,62</t>
+          <t>-0,22; 16,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,62; -8,39</t>
+          <t>4,36; 16,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,72; -4,18</t>
+          <t>-2,67; 8,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,3; -8,34</t>
+          <t>9,12; 22,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,36; -12,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,91; -6,69</t>
+          <t>-1,85; 82,89</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33,37; 208,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; 58,95</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>55,59; 230,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>-15,58</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>-15,26</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>-11,2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>-22,71</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>-23,79%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-22,04%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-16,77%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-30,91%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 9,49</t>
+          <t>-24,58; -5,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 12,22</t>
+          <t>-24,13; -6,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 12,89</t>
+          <t>-18,78; -4,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 128,89</t>
+          <t>-30,74; -13,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 81,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,52; 96,31</t>
+          <t>-35,66; -10,2</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-32,6; -9,93</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-26,26; -6,73</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-40,17; -20,93</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,81</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>72,17%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>64,3%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>50,91%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>51,16%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 24,98</t>
+          <t>0,09; 13,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 13,06</t>
+          <t>-3,42; 12,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 9,87</t>
+          <t>1,98; 13,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41,35; 146,57</t>
+          <t>-2,24; 13,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 194,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 79,4</t>
+          <t>-4,62; 168,26</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-13,97; 79,86</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9,11; 104,33</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-16,45; 134,61</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-19,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-27,45%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,78; -12,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -1,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,61; -9,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,95; -18,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,51; -1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,06; -13,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>116,68%</t>
+          <t>90,76%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>164,02%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>32,85%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>28,54%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 6,11</t>
+          <t>8,88; 25,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 9,03</t>
+          <t>5,54; 16,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,27; 16,51</t>
+          <t>-0,45; 10,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 108,43</t>
+          <t>-5,48; 12,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 61,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,91; 218,12</t>
+          <t>38,11; 164,14</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>54,62; 349,12</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 81,3</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-23,76; 95,74</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>-21,64</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>-14,84</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>-16,7</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>-29,68%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-19,83%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-22,23%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-8,94%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,27; 13,12</t>
+          <t>-29,84; -11,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>4,3; 11,69</t>
+          <t>-21,94; -5,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,88</t>
+          <t>-23,24; -10,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,38; 59,37</t>
+          <t>-14,39; 4,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30,94; 119,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>11,4; 69,72</t>
+          <t>-39,23; -17,33</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-27,99; -8,31</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-29,85; -14,58</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-20,18; 6,28</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-13,44</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-14,65</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-14,72</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-20,77%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>49,18%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>21,88%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>119,23%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-18,04; -7,75</t>
+          <t>-2,11; 8,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,72; -9,21</t>
+          <t>-3,26; 10,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -10,29</t>
+          <t>6,32; 16,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-26,47; -12,77</t>
+          <t>-5,45; 7,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-27,06; -13,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-26,82; -15,57</t>
+          <t>-24,1; 191,86</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-15,0; 72,89</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>47,58; 222,8</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-29,62; 59,94</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>59,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,38; 7,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1,56; 11,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>11,28; 90,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,72; 69,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,5; 96,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>7,91</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>30,55%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-4,27%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 15,29</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-10,22; 6,77</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 70,05</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-54,03; 77,41</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-11,63</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-18,15%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-19,36; -3,86</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 13,76</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-28,39; -6,59</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-14,33; 24,0</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>37,17%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 9,04</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-15,0; 8,67</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-12,37; 117,47</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-48,8; 58,28</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>8,59</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>8,65</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>12,25</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>34,63%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>81,21%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>33,04%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>84,35%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 12,81</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 12,19</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 8,98</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 17,12</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>13,8; 57,68</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>37,91; 136,37</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 64,53</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>40,78; 143,66</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-13,63</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-14,07</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-14,54</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-14,66</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-20,84%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-20,01%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-20,94%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-21,32%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-18,11; -8,54</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-19,01; -8,93</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-18,82; -9,98</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-20,16; -7,49</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-26,74; -13,87</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-26,04; -13,09</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-26,25; -15,09</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-28,31; -12,1</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>5,04</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>9,2</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>51,34%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>28,54%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>64,02%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 8,51</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 9,46</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 12,43</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 7,47</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 105,7</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 57,65</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>34,68; 98,13</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-22,23; 55,57</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P18_1-Estudios-long_bre.xlsx
+++ b/data/long_bre/P18_1-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
